--- a/public/templates/plantilla_comunidades_fincatech.xlsx
+++ b/public/templates/plantilla_comunidades_fincatech.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oscar/Proyectos/web/fincatech/public/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oscar/Proyectos/fincatech/public/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEDAAB1E-F956-854E-944D-A0DD5AD97AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8458FEFD-B72D-DD4A-BC22-ED55E88AFCDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1350,7 +1350,7 @@
   <dimension ref="A1:W1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1395,10 +1395,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>6</v>
